--- a/medicine/Sexualité et sexologie/Supervixens/Supervixens.xlsx
+++ b/medicine/Sexualité et sexologie/Supervixens/Supervixens.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Supervixens est un film américain réalisé en 1975 par Russ Meyer.
 </t>
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Clint Ramsey, pompiste, a l'habitude de se disputer avec sa femme SuperAngel. Le jour où celle-ci est assassinée, tout accuse Clint. Obligé de s'enfuir, il rencontrera durant son voyage un jeune couple libertin, un vieux fermier marié à une Autrichienne et une femme noire avec qui il aura un flirt. Après plusieurs péripéties, Clint arrive dans une station d'essence tenue par une femme nommée « SuperVixen » dont il tombe amoureux.
 </t>
@@ -542,7 +556,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre original : Supervixens
 Réalisation : Russ Meyer
@@ -581,7 +597,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Shari Eubank (VF : Perrette Pradier) : SuperAngel / SuperVixen
 Charles Napier (VF : Henry Djanik) : Harry Sledge
@@ -624,7 +642,9 @@
           <t>Autour du film</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Le film fait référence à la série des dessins animés Bip Bip et Coyote : le klaxon de la voiture de Harry fait « beep-beep » et dans la scène finale, le personnage de Harry meurt après avoir laissé un bâton de dynamite allumé.
 Au générique de fin, les noms des acteurs ont été partiellement changés : Shari Eubank est créditée au nom de Shari Sheridan, ce qui donne les initiales SS.
